--- a/poles_blocks_example.xlsx
+++ b/poles_blocks_example.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\pythonProject1\test_picture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0DD9BE-F78B-4FEA-8D63-8AC5D1BBDD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAEAFE4-2623-4D9A-9613-BD9CB89FC6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12855" yWindow="1440" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>template_module</t>
   </si>
@@ -44,82 +43,73 @@
     <t>pole_types</t>
   </si>
   <si>
-    <t>PC_I_20_230_24</t>
-  </si>
-  <si>
     <t>POLE</t>
   </si>
   <si>
-    <t>Trụ điện chính cao 17m</t>
-  </si>
-  <si>
     <t>foundations</t>
   </si>
   <si>
-    <t>mong_MT12</t>
-  </si>
-  <si>
     <t>FOUNDATION</t>
   </si>
   <si>
-    <t>AT=0, DESC=Móng tại chân cột</t>
-  </si>
-  <si>
     <t>crossarms</t>
   </si>
   <si>
-    <t>xa_X2L_3D</t>
-  </si>
-  <si>
     <t>CROSSARM</t>
   </si>
   <si>
-    <t>AT=2300, X=0, DESC=Xà phụ tầng 1 (giữa)</t>
-  </si>
-  <si>
-    <t>AT=2300, X=-300, DESC=Xà phụ tầng 1 (trái)</t>
-  </si>
-  <si>
-    <t>AT=2300, X=300, DESC=Xà phụ tầng 1 (phải)</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>csv_35kV</t>
-  </si>
-  <si>
-    <t>ARRESTOR</t>
-  </si>
-  <si>
-    <t>AT=16000, X=0, DESC=Chống sét trên đỉnh cột</t>
-  </si>
-  <si>
-    <t>PC_I_20_230_30</t>
-  </si>
-  <si>
     <t>Trụ điện chính cao 18m</t>
   </si>
   <si>
-    <t>mong_MT20</t>
-  </si>
-  <si>
-    <t>AT=0, DESC=Móng đặt tại chân cột lớn</t>
-  </si>
-  <si>
-    <t>xa_X2L_4D</t>
-  </si>
-  <si>
-    <t>AT=2500, X=0, DESC=Xà phụ tầng 1 (giữa)</t>
-  </si>
-  <si>
-    <t>AT=2500, X=-350, DESC=Xà phụ tầng 1 (trái)</t>
-  </si>
-  <si>
-    <t>AT=2500, X=350, DESC=Xà phụ tầng 1 (phải)</t>
-  </si>
-  <si>
-    <t>AT=17500, X=0, DESC=Chống sét trên đỉnh cột</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>cot_PC_20_230_24</t>
+  </si>
+  <si>
+    <t>mong_MT2_18A</t>
+  </si>
+  <si>
+    <t>xa_phu_X2L_3Đ_T1</t>
+  </si>
+  <si>
+    <t>xa_phu_X2L_3Đ_T2</t>
+  </si>
+  <si>
+    <t>xa_phu_X2L_3Đ_T3</t>
+  </si>
+  <si>
+    <t>xa_X2KD_3NK</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>thang_treo</t>
+  </si>
+  <si>
+    <t>STAIRS</t>
+  </si>
+  <si>
+    <t>AT=0,DESC=Móng tại chân cột</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT=14, DESC=Xà phụ tầng 1 </t>
+  </si>
+  <si>
+    <t>AT=13.5, DESC=Xà phụ tầng 2</t>
+  </si>
+  <si>
+    <t>AT=13, DESC=Xà phụ tầng 3</t>
+  </si>
+  <si>
+    <t>AT=16,DESC=Chống sét trên đỉnh cột</t>
+  </si>
+  <si>
+    <t>AT=3.5, DESC=Cầu Thang</t>
   </si>
 </sst>
 </file>
@@ -482,18 +472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="5" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,261 +498,150 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>17000</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-0.2</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="37.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>18000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
